--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_247.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_247.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d77917-Reviews-Embassy_Suites_by_Hilton_LAX_North-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1127</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Embassy-Suites-Los-Angeles-Intl-Airport-North.h13147.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_247.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_247.xlsx
@@ -13256,7 +13256,7 @@
         <v>19286</v>
       </c>
       <c r="B2" t="n">
-        <v>145332</v>
+        <v>176631</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -13327,7 +13327,7 @@
         <v>19286</v>
       </c>
       <c r="B3" t="n">
-        <v>145333</v>
+        <v>176632</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -13398,7 +13398,7 @@
         <v>19286</v>
       </c>
       <c r="B4" t="n">
-        <v>145334</v>
+        <v>176633</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -13473,7 +13473,7 @@
         <v>19286</v>
       </c>
       <c r="B5" t="n">
-        <v>145335</v>
+        <v>176634</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -13544,7 +13544,7 @@
         <v>19286</v>
       </c>
       <c r="B6" t="n">
-        <v>145336</v>
+        <v>176635</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -13605,7 +13605,7 @@
         <v>19286</v>
       </c>
       <c r="B7" t="n">
-        <v>145337</v>
+        <v>176636</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
@@ -13670,7 +13670,7 @@
         <v>19286</v>
       </c>
       <c r="B8" t="n">
-        <v>145338</v>
+        <v>176637</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
@@ -13735,7 +13735,7 @@
         <v>19286</v>
       </c>
       <c r="B9" t="n">
-        <v>145339</v>
+        <v>176638</v>
       </c>
       <c r="C9" t="s">
         <v>93</v>
@@ -13796,7 +13796,7 @@
         <v>19286</v>
       </c>
       <c r="B10" t="n">
-        <v>145340</v>
+        <v>176639</v>
       </c>
       <c r="C10" t="s">
         <v>99</v>
@@ -13928,7 +13928,7 @@
         <v>19286</v>
       </c>
       <c r="B12" t="n">
-        <v>145341</v>
+        <v>176640</v>
       </c>
       <c r="C12" t="s">
         <v>110</v>
@@ -14003,7 +14003,7 @@
         <v>19286</v>
       </c>
       <c r="B13" t="n">
-        <v>145342</v>
+        <v>176641</v>
       </c>
       <c r="C13" t="s">
         <v>119</v>
@@ -14060,7 +14060,7 @@
         <v>19286</v>
       </c>
       <c r="B14" t="n">
-        <v>145343</v>
+        <v>176642</v>
       </c>
       <c r="C14" t="s">
         <v>125</v>
@@ -14121,7 +14121,7 @@
         <v>19286</v>
       </c>
       <c r="B15" t="n">
-        <v>145344</v>
+        <v>176643</v>
       </c>
       <c r="C15" t="s">
         <v>132</v>
@@ -14243,7 +14243,7 @@
         <v>19286</v>
       </c>
       <c r="B17" t="n">
-        <v>145345</v>
+        <v>176644</v>
       </c>
       <c r="C17" t="s">
         <v>145</v>
@@ -14314,7 +14314,7 @@
         <v>19286</v>
       </c>
       <c r="B18" t="n">
-        <v>145346</v>
+        <v>176645</v>
       </c>
       <c r="C18" t="s">
         <v>151</v>
@@ -14385,7 +14385,7 @@
         <v>19286</v>
       </c>
       <c r="B19" t="n">
-        <v>145347</v>
+        <v>176646</v>
       </c>
       <c r="C19" t="s">
         <v>156</v>
@@ -14456,7 +14456,7 @@
         <v>19286</v>
       </c>
       <c r="B20" t="n">
-        <v>145348</v>
+        <v>176647</v>
       </c>
       <c r="C20" t="s">
         <v>162</v>
@@ -14523,7 +14523,7 @@
         <v>19286</v>
       </c>
       <c r="B21" t="n">
-        <v>145349</v>
+        <v>176648</v>
       </c>
       <c r="C21" t="s">
         <v>168</v>
@@ -14588,7 +14588,7 @@
         <v>19286</v>
       </c>
       <c r="B22" t="n">
-        <v>145350</v>
+        <v>176649</v>
       </c>
       <c r="C22" t="s">
         <v>174</v>
@@ -14653,7 +14653,7 @@
         <v>19286</v>
       </c>
       <c r="B23" t="n">
-        <v>145351</v>
+        <v>176650</v>
       </c>
       <c r="C23" t="s">
         <v>180</v>
@@ -14787,7 +14787,7 @@
         <v>19286</v>
       </c>
       <c r="B25" t="n">
-        <v>145352</v>
+        <v>176651</v>
       </c>
       <c r="C25" t="s">
         <v>191</v>
@@ -14909,7 +14909,7 @@
         <v>19286</v>
       </c>
       <c r="B27" t="n">
-        <v>145353</v>
+        <v>176652</v>
       </c>
       <c r="C27" t="s">
         <v>204</v>
@@ -14980,7 +14980,7 @@
         <v>19286</v>
       </c>
       <c r="B28" t="n">
-        <v>145354</v>
+        <v>176653</v>
       </c>
       <c r="C28" t="s">
         <v>209</v>
@@ -15315,7 +15315,7 @@
         <v>19286</v>
       </c>
       <c r="B33" t="n">
-        <v>145355</v>
+        <v>176654</v>
       </c>
       <c r="C33" t="s">
         <v>243</v>
@@ -15382,7 +15382,7 @@
         <v>19286</v>
       </c>
       <c r="B34" t="n">
-        <v>145356</v>
+        <v>176655</v>
       </c>
       <c r="C34" t="s">
         <v>250</v>
@@ -15443,7 +15443,7 @@
         <v>19286</v>
       </c>
       <c r="B35" t="n">
-        <v>145357</v>
+        <v>176656</v>
       </c>
       <c r="C35" t="s">
         <v>255</v>
@@ -15514,7 +15514,7 @@
         <v>19286</v>
       </c>
       <c r="B36" t="n">
-        <v>145358</v>
+        <v>176657</v>
       </c>
       <c r="C36" t="s">
         <v>264</v>
@@ -15847,7 +15847,7 @@
         <v>19286</v>
       </c>
       <c r="B41" t="n">
-        <v>145359</v>
+        <v>176658</v>
       </c>
       <c r="C41" t="s">
         <v>297</v>
@@ -15918,7 +15918,7 @@
         <v>19286</v>
       </c>
       <c r="B42" t="n">
-        <v>145360</v>
+        <v>176659</v>
       </c>
       <c r="C42" t="s">
         <v>303</v>
@@ -15983,7 +15983,7 @@
         <v>19286</v>
       </c>
       <c r="B43" t="n">
-        <v>145361</v>
+        <v>176660</v>
       </c>
       <c r="C43" t="s">
         <v>311</v>
@@ -16054,7 +16054,7 @@
         <v>19286</v>
       </c>
       <c r="B44" t="n">
-        <v>145362</v>
+        <v>176661</v>
       </c>
       <c r="C44" t="s">
         <v>317</v>
@@ -16176,7 +16176,7 @@
         <v>19286</v>
       </c>
       <c r="B46" t="n">
-        <v>145363</v>
+        <v>176662</v>
       </c>
       <c r="C46" t="s">
         <v>331</v>
@@ -16241,7 +16241,7 @@
         <v>19286</v>
       </c>
       <c r="B47" t="n">
-        <v>145364</v>
+        <v>176663</v>
       </c>
       <c r="C47" t="s">
         <v>340</v>
@@ -16302,7 +16302,7 @@
         <v>19286</v>
       </c>
       <c r="B48" t="n">
-        <v>145365</v>
+        <v>176664</v>
       </c>
       <c r="C48" t="s">
         <v>346</v>
@@ -16369,7 +16369,7 @@
         <v>19286</v>
       </c>
       <c r="B49" t="n">
-        <v>145366</v>
+        <v>176665</v>
       </c>
       <c r="C49" t="s">
         <v>352</v>
@@ -16509,7 +16509,7 @@
         <v>19286</v>
       </c>
       <c r="B51" t="n">
-        <v>145367</v>
+        <v>176666</v>
       </c>
       <c r="C51" t="s">
         <v>366</v>
@@ -16698,7 +16698,7 @@
         <v>19286</v>
       </c>
       <c r="B54" t="n">
-        <v>145368</v>
+        <v>176667</v>
       </c>
       <c r="C54" t="s">
         <v>383</v>
@@ -16834,7 +16834,7 @@
         <v>19286</v>
       </c>
       <c r="B56" t="n">
-        <v>145369</v>
+        <v>176668</v>
       </c>
       <c r="C56" t="s">
         <v>397</v>
@@ -16895,7 +16895,7 @@
         <v>19286</v>
       </c>
       <c r="B57" t="n">
-        <v>145370</v>
+        <v>176669</v>
       </c>
       <c r="C57" t="s">
         <v>403</v>
@@ -16966,7 +16966,7 @@
         <v>19286</v>
       </c>
       <c r="B58" t="n">
-        <v>145371</v>
+        <v>176670</v>
       </c>
       <c r="C58" t="s">
         <v>409</v>
@@ -17027,7 +17027,7 @@
         <v>19286</v>
       </c>
       <c r="B59" t="n">
-        <v>145372</v>
+        <v>176671</v>
       </c>
       <c r="C59" t="s">
         <v>415</v>
@@ -17155,7 +17155,7 @@
         <v>19286</v>
       </c>
       <c r="B61" t="n">
-        <v>145373</v>
+        <v>176672</v>
       </c>
       <c r="C61" t="s">
         <v>426</v>
@@ -17226,7 +17226,7 @@
         <v>19286</v>
       </c>
       <c r="B62" t="n">
-        <v>145374</v>
+        <v>176673</v>
       </c>
       <c r="C62" t="s">
         <v>430</v>
@@ -17291,7 +17291,7 @@
         <v>19286</v>
       </c>
       <c r="B63" t="n">
-        <v>145375</v>
+        <v>176674</v>
       </c>
       <c r="C63" t="s">
         <v>436</v>
@@ -17358,7 +17358,7 @@
         <v>19286</v>
       </c>
       <c r="B64" t="n">
-        <v>145376</v>
+        <v>176675</v>
       </c>
       <c r="C64" t="s">
         <v>441</v>
@@ -17419,7 +17419,7 @@
         <v>19286</v>
       </c>
       <c r="B65" t="n">
-        <v>145377</v>
+        <v>176676</v>
       </c>
       <c r="C65" t="s">
         <v>448</v>
@@ -17484,7 +17484,7 @@
         <v>19286</v>
       </c>
       <c r="B66" t="n">
-        <v>145378</v>
+        <v>176677</v>
       </c>
       <c r="C66" t="s">
         <v>455</v>
@@ -17606,7 +17606,7 @@
         <v>19286</v>
       </c>
       <c r="B68" t="n">
-        <v>145379</v>
+        <v>176678</v>
       </c>
       <c r="C68" t="s">
         <v>467</v>
@@ -17799,7 +17799,7 @@
         <v>19286</v>
       </c>
       <c r="B71" t="n">
-        <v>145380</v>
+        <v>176679</v>
       </c>
       <c r="C71" t="s">
         <v>488</v>
@@ -17864,7 +17864,7 @@
         <v>19286</v>
       </c>
       <c r="B72" t="n">
-        <v>145381</v>
+        <v>176680</v>
       </c>
       <c r="C72" t="s">
         <v>494</v>
@@ -17925,7 +17925,7 @@
         <v>19286</v>
       </c>
       <c r="B73" t="n">
-        <v>145382</v>
+        <v>176681</v>
       </c>
       <c r="C73" t="s">
         <v>500</v>
@@ -18303,7 +18303,7 @@
         <v>19286</v>
       </c>
       <c r="B79" t="n">
-        <v>145383</v>
+        <v>176682</v>
       </c>
       <c r="C79" t="s">
         <v>539</v>
@@ -18364,7 +18364,7 @@
         <v>19286</v>
       </c>
       <c r="B80" t="n">
-        <v>145384</v>
+        <v>176683</v>
       </c>
       <c r="C80" t="s">
         <v>545</v>
@@ -18425,7 +18425,7 @@
         <v>19286</v>
       </c>
       <c r="B81" t="n">
-        <v>145385</v>
+        <v>176684</v>
       </c>
       <c r="C81" t="s">
         <v>554</v>
@@ -18500,7 +18500,7 @@
         <v>19286</v>
       </c>
       <c r="B82" t="n">
-        <v>145386</v>
+        <v>176685</v>
       </c>
       <c r="C82" t="s">
         <v>560</v>
@@ -18565,7 +18565,7 @@
         <v>19286</v>
       </c>
       <c r="B83" t="n">
-        <v>145387</v>
+        <v>176686</v>
       </c>
       <c r="C83" t="s">
         <v>565</v>
@@ -18841,7 +18841,7 @@
         <v>19286</v>
       </c>
       <c r="B87" t="n">
-        <v>145388</v>
+        <v>176687</v>
       </c>
       <c r="C87" t="s">
         <v>594</v>
@@ -18902,7 +18902,7 @@
         <v>19286</v>
       </c>
       <c r="B88" t="n">
-        <v>145389</v>
+        <v>176688</v>
       </c>
       <c r="C88" t="s">
         <v>599</v>
@@ -18973,7 +18973,7 @@
         <v>19286</v>
       </c>
       <c r="B89" t="n">
-        <v>145390</v>
+        <v>176689</v>
       </c>
       <c r="C89" t="s">
         <v>604</v>
@@ -19034,7 +19034,7 @@
         <v>19286</v>
       </c>
       <c r="B90" t="n">
-        <v>145391</v>
+        <v>176690</v>
       </c>
       <c r="C90" t="s">
         <v>610</v>
@@ -19109,7 +19109,7 @@
         <v>19286</v>
       </c>
       <c r="B91" t="n">
-        <v>145392</v>
+        <v>176691</v>
       </c>
       <c r="C91" t="s">
         <v>618</v>
@@ -19170,7 +19170,7 @@
         <v>19286</v>
       </c>
       <c r="B92" t="n">
-        <v>145393</v>
+        <v>176692</v>
       </c>
       <c r="C92" t="s">
         <v>623</v>
@@ -19241,7 +19241,7 @@
         <v>19286</v>
       </c>
       <c r="B93" t="n">
-        <v>145394</v>
+        <v>176693</v>
       </c>
       <c r="C93" t="s">
         <v>629</v>
@@ -19302,7 +19302,7 @@
         <v>19286</v>
       </c>
       <c r="B94" t="n">
-        <v>145395</v>
+        <v>176694</v>
       </c>
       <c r="C94" t="s">
         <v>637</v>
@@ -19377,7 +19377,7 @@
         <v>19286</v>
       </c>
       <c r="B95" t="n">
-        <v>145396</v>
+        <v>176695</v>
       </c>
       <c r="C95" t="s">
         <v>644</v>
@@ -19448,7 +19448,7 @@
         <v>19286</v>
       </c>
       <c r="B96" t="n">
-        <v>145397</v>
+        <v>176696</v>
       </c>
       <c r="C96" t="s">
         <v>650</v>
@@ -19633,7 +19633,7 @@
         <v>19286</v>
       </c>
       <c r="B99" t="n">
-        <v>145398</v>
+        <v>176697</v>
       </c>
       <c r="C99" t="s">
         <v>669</v>
@@ -19765,7 +19765,7 @@
         <v>19286</v>
       </c>
       <c r="B101" t="n">
-        <v>145399</v>
+        <v>176698</v>
       </c>
       <c r="C101" t="s">
         <v>681</v>
@@ -19822,7 +19822,7 @@
         <v>19286</v>
       </c>
       <c r="B102" t="n">
-        <v>145400</v>
+        <v>176699</v>
       </c>
       <c r="C102" t="s">
         <v>687</v>
@@ -19893,7 +19893,7 @@
         <v>19286</v>
       </c>
       <c r="B103" t="n">
-        <v>145401</v>
+        <v>176700</v>
       </c>
       <c r="C103" t="s">
         <v>692</v>
@@ -19960,7 +19960,7 @@
         <v>19286</v>
       </c>
       <c r="B104" t="n">
-        <v>145402</v>
+        <v>176701</v>
       </c>
       <c r="C104" t="s">
         <v>698</v>
@@ -20031,7 +20031,7 @@
         <v>19286</v>
       </c>
       <c r="B105" t="n">
-        <v>145403</v>
+        <v>176702</v>
       </c>
       <c r="C105" t="s">
         <v>704</v>
@@ -20281,7 +20281,7 @@
         <v>19286</v>
       </c>
       <c r="B109" t="n">
-        <v>145404</v>
+        <v>176703</v>
       </c>
       <c r="C109" t="s">
         <v>732</v>
@@ -20421,7 +20421,7 @@
         <v>19286</v>
       </c>
       <c r="B111" t="n">
-        <v>145405</v>
+        <v>176704</v>
       </c>
       <c r="C111" t="s">
         <v>746</v>
@@ -20488,7 +20488,7 @@
         <v>19286</v>
       </c>
       <c r="B112" t="n">
-        <v>145406</v>
+        <v>145405</v>
       </c>
       <c r="C112" t="s">
         <v>752</v>
@@ -20549,7 +20549,7 @@
         <v>19286</v>
       </c>
       <c r="B113" t="n">
-        <v>145407</v>
+        <v>176705</v>
       </c>
       <c r="C113" t="s">
         <v>759</v>
@@ -20620,7 +20620,7 @@
         <v>19286</v>
       </c>
       <c r="B114" t="n">
-        <v>145408</v>
+        <v>176706</v>
       </c>
       <c r="C114" t="s">
         <v>765</v>
@@ -20685,7 +20685,7 @@
         <v>19286</v>
       </c>
       <c r="B115" t="n">
-        <v>145409</v>
+        <v>176707</v>
       </c>
       <c r="C115" t="s">
         <v>774</v>
@@ -20760,7 +20760,7 @@
         <v>19286</v>
       </c>
       <c r="B116" t="n">
-        <v>145410</v>
+        <v>176708</v>
       </c>
       <c r="C116" t="s">
         <v>781</v>
@@ -20821,7 +20821,7 @@
         <v>19286</v>
       </c>
       <c r="B117" t="n">
-        <v>145411</v>
+        <v>176709</v>
       </c>
       <c r="C117" t="s">
         <v>787</v>
@@ -21091,7 +21091,7 @@
         <v>19286</v>
       </c>
       <c r="B121" t="n">
-        <v>145412</v>
+        <v>176710</v>
       </c>
       <c r="C121" t="s">
         <v>810</v>
@@ -21162,7 +21162,7 @@
         <v>19286</v>
       </c>
       <c r="B122" t="n">
-        <v>145413</v>
+        <v>176711</v>
       </c>
       <c r="C122" t="s">
         <v>815</v>
@@ -21294,7 +21294,7 @@
         <v>19286</v>
       </c>
       <c r="B124" t="n">
-        <v>145414</v>
+        <v>176712</v>
       </c>
       <c r="C124" t="s">
         <v>827</v>
@@ -21361,7 +21361,7 @@
         <v>19286</v>
       </c>
       <c r="B125" t="n">
-        <v>145415</v>
+        <v>176713</v>
       </c>
       <c r="C125" t="s">
         <v>835</v>
@@ -21432,7 +21432,7 @@
         <v>19286</v>
       </c>
       <c r="B126" t="n">
-        <v>145416</v>
+        <v>176714</v>
       </c>
       <c r="C126" t="s">
         <v>841</v>
@@ -21696,7 +21696,7 @@
         <v>19286</v>
       </c>
       <c r="B130" t="n">
-        <v>145417</v>
+        <v>176715</v>
       </c>
       <c r="C130" t="s">
         <v>865</v>
@@ -21828,7 +21828,7 @@
         <v>19286</v>
       </c>
       <c r="B132" t="n">
-        <v>145418</v>
+        <v>176716</v>
       </c>
       <c r="C132" t="s">
         <v>877</v>
@@ -21893,7 +21893,7 @@
         <v>19286</v>
       </c>
       <c r="B133" t="n">
-        <v>145419</v>
+        <v>176717</v>
       </c>
       <c r="C133" t="s">
         <v>886</v>
@@ -21968,7 +21968,7 @@
         <v>19286</v>
       </c>
       <c r="B134" t="n">
-        <v>145420</v>
+        <v>176718</v>
       </c>
       <c r="C134" t="s">
         <v>892</v>
@@ -22035,7 +22035,7 @@
         <v>19286</v>
       </c>
       <c r="B135" t="n">
-        <v>145421</v>
+        <v>176719</v>
       </c>
       <c r="C135" t="s">
         <v>898</v>
@@ -22157,7 +22157,7 @@
         <v>19286</v>
       </c>
       <c r="B137" t="n">
-        <v>145422</v>
+        <v>176720</v>
       </c>
       <c r="C137" t="s">
         <v>911</v>
@@ -22218,7 +22218,7 @@
         <v>19286</v>
       </c>
       <c r="B138" t="n">
-        <v>145423</v>
+        <v>176721</v>
       </c>
       <c r="C138" t="s">
         <v>918</v>
@@ -22425,7 +22425,7 @@
         <v>19286</v>
       </c>
       <c r="B141" t="n">
-        <v>145424</v>
+        <v>176722</v>
       </c>
       <c r="C141" t="s">
         <v>939</v>
@@ -22486,7 +22486,7 @@
         <v>19286</v>
       </c>
       <c r="B142" t="n">
-        <v>145425</v>
+        <v>176723</v>
       </c>
       <c r="C142" t="s">
         <v>946</v>
@@ -22553,7 +22553,7 @@
         <v>19286</v>
       </c>
       <c r="B143" t="n">
-        <v>145426</v>
+        <v>176724</v>
       </c>
       <c r="C143" t="s">
         <v>952</v>
@@ -22817,7 +22817,7 @@
         <v>19286</v>
       </c>
       <c r="B147" t="n">
-        <v>145427</v>
+        <v>176725</v>
       </c>
       <c r="C147" t="s">
         <v>975</v>
@@ -22888,7 +22888,7 @@
         <v>19286</v>
       </c>
       <c r="B148" t="n">
-        <v>145428</v>
+        <v>176726</v>
       </c>
       <c r="C148" t="s">
         <v>981</v>
@@ -23026,7 +23026,7 @@
         <v>19286</v>
       </c>
       <c r="B150" t="n">
-        <v>145429</v>
+        <v>145420</v>
       </c>
       <c r="C150" t="s">
         <v>992</v>
@@ -23087,7 +23087,7 @@
         <v>19286</v>
       </c>
       <c r="B151" t="n">
-        <v>145430</v>
+        <v>176727</v>
       </c>
       <c r="C151" t="s">
         <v>998</v>
@@ -23156,7 +23156,7 @@
         <v>19286</v>
       </c>
       <c r="B152" t="n">
-        <v>145431</v>
+        <v>176728</v>
       </c>
       <c r="C152" t="s">
         <v>1006</v>
@@ -23288,7 +23288,7 @@
         <v>19286</v>
       </c>
       <c r="B154" t="n">
-        <v>145432</v>
+        <v>176729</v>
       </c>
       <c r="C154" t="s">
         <v>1018</v>
@@ -23355,7 +23355,7 @@
         <v>19286</v>
       </c>
       <c r="B155" t="n">
-        <v>145433</v>
+        <v>176730</v>
       </c>
       <c r="C155" t="s">
         <v>1023</v>
@@ -23420,7 +23420,7 @@
         <v>19286</v>
       </c>
       <c r="B156" t="n">
-        <v>145434</v>
+        <v>176731</v>
       </c>
       <c r="C156" t="s">
         <v>1029</v>
@@ -23485,7 +23485,7 @@
         <v>19286</v>
       </c>
       <c r="B157" t="n">
-        <v>145435</v>
+        <v>176732</v>
       </c>
       <c r="C157" t="s">
         <v>1036</v>
@@ -23556,7 +23556,7 @@
         <v>19286</v>
       </c>
       <c r="B158" t="n">
-        <v>145436</v>
+        <v>176733</v>
       </c>
       <c r="C158" t="s">
         <v>1042</v>
@@ -23621,7 +23621,7 @@
         <v>19286</v>
       </c>
       <c r="B159" t="n">
-        <v>145437</v>
+        <v>176734</v>
       </c>
       <c r="C159" t="s">
         <v>1048</v>
@@ -23690,7 +23690,7 @@
         <v>19286</v>
       </c>
       <c r="B160" t="n">
-        <v>145438</v>
+        <v>176735</v>
       </c>
       <c r="C160" t="s">
         <v>1053</v>
@@ -23751,7 +23751,7 @@
         <v>19286</v>
       </c>
       <c r="B161" t="n">
-        <v>145439</v>
+        <v>176736</v>
       </c>
       <c r="C161" t="s">
         <v>1059</v>
@@ -23812,7 +23812,7 @@
         <v>19286</v>
       </c>
       <c r="B162" t="n">
-        <v>145440</v>
+        <v>176737</v>
       </c>
       <c r="C162" t="s">
         <v>1065</v>
@@ -23883,7 +23883,7 @@
         <v>19286</v>
       </c>
       <c r="B163" t="n">
-        <v>145441</v>
+        <v>176738</v>
       </c>
       <c r="C163" t="s">
         <v>1071</v>
@@ -24019,7 +24019,7 @@
         <v>19286</v>
       </c>
       <c r="B165" t="n">
-        <v>145442</v>
+        <v>176739</v>
       </c>
       <c r="C165" t="s">
         <v>1084</v>
@@ -24220,7 +24220,7 @@
         <v>19286</v>
       </c>
       <c r="B168" t="n">
-        <v>145443</v>
+        <v>176740</v>
       </c>
       <c r="C168" t="s">
         <v>1104</v>
@@ -24281,7 +24281,7 @@
         <v>19286</v>
       </c>
       <c r="B169" t="n">
-        <v>145444</v>
+        <v>176741</v>
       </c>
       <c r="C169" t="s">
         <v>1110</v>
@@ -24419,7 +24419,7 @@
         <v>19286</v>
       </c>
       <c r="B171" t="n">
-        <v>145445</v>
+        <v>176742</v>
       </c>
       <c r="C171" t="s">
         <v>1126</v>
@@ -24484,7 +24484,7 @@
         <v>19286</v>
       </c>
       <c r="B172" t="n">
-        <v>145446</v>
+        <v>176743</v>
       </c>
       <c r="C172" t="s">
         <v>1131</v>
@@ -24559,7 +24559,7 @@
         <v>19286</v>
       </c>
       <c r="B173" t="n">
-        <v>145447</v>
+        <v>176744</v>
       </c>
       <c r="C173" t="s">
         <v>1139</v>
@@ -24624,7 +24624,7 @@
         <v>19286</v>
       </c>
       <c r="B174" t="n">
-        <v>145448</v>
+        <v>176745</v>
       </c>
       <c r="C174" t="s">
         <v>1145</v>
@@ -24681,7 +24681,7 @@
         <v>19286</v>
       </c>
       <c r="B175" t="n">
-        <v>145449</v>
+        <v>176746</v>
       </c>
       <c r="C175" t="s">
         <v>1151</v>
@@ -24746,7 +24746,7 @@
         <v>19286</v>
       </c>
       <c r="B176" t="n">
-        <v>145450</v>
+        <v>176747</v>
       </c>
       <c r="C176" t="s">
         <v>1159</v>
@@ -24807,7 +24807,7 @@
         <v>19286</v>
       </c>
       <c r="B177" t="n">
-        <v>145451</v>
+        <v>176748</v>
       </c>
       <c r="C177" t="s">
         <v>1165</v>
@@ -24868,7 +24868,7 @@
         <v>19286</v>
       </c>
       <c r="B178" t="n">
-        <v>145452</v>
+        <v>176749</v>
       </c>
       <c r="C178" t="s">
         <v>1171</v>
@@ -25051,7 +25051,7 @@
         <v>19286</v>
       </c>
       <c r="B181" t="n">
-        <v>145453</v>
+        <v>176750</v>
       </c>
       <c r="C181" t="s">
         <v>1189</v>
@@ -25112,7 +25112,7 @@
         <v>19286</v>
       </c>
       <c r="B182" t="n">
-        <v>145454</v>
+        <v>176751</v>
       </c>
       <c r="C182" t="s">
         <v>1194</v>
@@ -25177,7 +25177,7 @@
         <v>19286</v>
       </c>
       <c r="B183" t="n">
-        <v>145455</v>
+        <v>176752</v>
       </c>
       <c r="C183" t="s">
         <v>1200</v>
@@ -25431,7 +25431,7 @@
         <v>19286</v>
       </c>
       <c r="B187" t="n">
-        <v>145456</v>
+        <v>176753</v>
       </c>
       <c r="C187" t="s">
         <v>1224</v>
@@ -25500,7 +25500,7 @@
         <v>19286</v>
       </c>
       <c r="B188" t="n">
-        <v>145457</v>
+        <v>176754</v>
       </c>
       <c r="C188" t="s">
         <v>1233</v>
@@ -25561,7 +25561,7 @@
         <v>19286</v>
       </c>
       <c r="B189" t="n">
-        <v>145458</v>
+        <v>176755</v>
       </c>
       <c r="C189" t="s">
         <v>1238</v>
@@ -25632,7 +25632,7 @@
         <v>19286</v>
       </c>
       <c r="B190" t="n">
-        <v>145459</v>
+        <v>176756</v>
       </c>
       <c r="C190" t="s">
         <v>1243</v>
@@ -25693,7 +25693,7 @@
         <v>19286</v>
       </c>
       <c r="B191" t="n">
-        <v>145460</v>
+        <v>176757</v>
       </c>
       <c r="C191" t="s">
         <v>1249</v>
@@ -25760,7 +25760,7 @@
         <v>19286</v>
       </c>
       <c r="B192" t="n">
-        <v>145461</v>
+        <v>176758</v>
       </c>
       <c r="C192" t="s">
         <v>1256</v>
@@ -25825,7 +25825,7 @@
         <v>19286</v>
       </c>
       <c r="B193" t="n">
-        <v>145462</v>
+        <v>176759</v>
       </c>
       <c r="C193" t="s">
         <v>1261</v>
@@ -25900,7 +25900,7 @@
         <v>19286</v>
       </c>
       <c r="B194" t="n">
-        <v>145463</v>
+        <v>176760</v>
       </c>
       <c r="C194" t="s">
         <v>1270</v>
@@ -25975,7 +25975,7 @@
         <v>19286</v>
       </c>
       <c r="B195" t="n">
-        <v>145464</v>
+        <v>176761</v>
       </c>
       <c r="C195" t="s">
         <v>1279</v>
@@ -26101,7 +26101,7 @@
         <v>19286</v>
       </c>
       <c r="B197" t="n">
-        <v>145465</v>
+        <v>176762</v>
       </c>
       <c r="C197" t="s">
         <v>1293</v>
@@ -26432,7 +26432,7 @@
         <v>19286</v>
       </c>
       <c r="B202" t="n">
-        <v>145466</v>
+        <v>176763</v>
       </c>
       <c r="C202" t="s">
         <v>1326</v>
@@ -26560,7 +26560,7 @@
         <v>19286</v>
       </c>
       <c r="B204" t="n">
-        <v>145467</v>
+        <v>176764</v>
       </c>
       <c r="C204" t="s">
         <v>1339</v>
@@ -26629,7 +26629,7 @@
         <v>19286</v>
       </c>
       <c r="B205" t="n">
-        <v>145468</v>
+        <v>176765</v>
       </c>
       <c r="C205" t="s">
         <v>1344</v>
@@ -26690,7 +26690,7 @@
         <v>19286</v>
       </c>
       <c r="B206" t="n">
-        <v>145469</v>
+        <v>176766</v>
       </c>
       <c r="C206" t="s">
         <v>1350</v>
@@ -26812,7 +26812,7 @@
         <v>19286</v>
       </c>
       <c r="B208" t="n">
-        <v>145470</v>
+        <v>176767</v>
       </c>
       <c r="C208" t="s">
         <v>1365</v>
@@ -26944,7 +26944,7 @@
         <v>19286</v>
       </c>
       <c r="B210" t="n">
-        <v>145471</v>
+        <v>176768</v>
       </c>
       <c r="C210" t="s">
         <v>1376</v>
@@ -27086,7 +27086,7 @@
         <v>19286</v>
       </c>
       <c r="B212" t="n">
-        <v>145472</v>
+        <v>176769</v>
       </c>
       <c r="C212" t="s">
         <v>1391</v>
@@ -27157,7 +27157,7 @@
         <v>19286</v>
       </c>
       <c r="B213" t="n">
-        <v>145473</v>
+        <v>176770</v>
       </c>
       <c r="C213" t="s">
         <v>1397</v>
@@ -27222,7 +27222,7 @@
         <v>19286</v>
       </c>
       <c r="B214" t="n">
-        <v>145474</v>
+        <v>176771</v>
       </c>
       <c r="C214" t="s">
         <v>1403</v>
@@ -27297,7 +27297,7 @@
         <v>19286</v>
       </c>
       <c r="B215" t="n">
-        <v>145475</v>
+        <v>176772</v>
       </c>
       <c r="C215" t="s">
         <v>1411</v>
@@ -27362,7 +27362,7 @@
         <v>19286</v>
       </c>
       <c r="B216" t="n">
-        <v>145476</v>
+        <v>176773</v>
       </c>
       <c r="C216" t="s">
         <v>1417</v>
@@ -27504,7 +27504,7 @@
         <v>19286</v>
       </c>
       <c r="B218" t="n">
-        <v>145477</v>
+        <v>176774</v>
       </c>
       <c r="C218" t="s">
         <v>1431</v>
@@ -27701,7 +27701,7 @@
         <v>19286</v>
       </c>
       <c r="B221" t="n">
-        <v>145478</v>
+        <v>176775</v>
       </c>
       <c r="C221" t="s">
         <v>1449</v>
@@ -27776,7 +27776,7 @@
         <v>19286</v>
       </c>
       <c r="B222" t="n">
-        <v>145479</v>
+        <v>176776</v>
       </c>
       <c r="C222" t="s">
         <v>1457</v>
@@ -27908,7 +27908,7 @@
         <v>19286</v>
       </c>
       <c r="B224" t="n">
-        <v>145480</v>
+        <v>176777</v>
       </c>
       <c r="C224" t="s">
         <v>1469</v>
@@ -27979,7 +27979,7 @@
         <v>19286</v>
       </c>
       <c r="B225" t="n">
-        <v>145481</v>
+        <v>176778</v>
       </c>
       <c r="C225" t="s">
         <v>1475</v>
@@ -28111,7 +28111,7 @@
         <v>19286</v>
       </c>
       <c r="B227" t="n">
-        <v>145482</v>
+        <v>176779</v>
       </c>
       <c r="C227" t="s">
         <v>1486</v>
@@ -28182,7 +28182,7 @@
         <v>19286</v>
       </c>
       <c r="B228" t="n">
-        <v>145483</v>
+        <v>176780</v>
       </c>
       <c r="C228" t="s">
         <v>1492</v>
@@ -28387,7 +28387,7 @@
         <v>19286</v>
       </c>
       <c r="B231" t="n">
-        <v>145484</v>
+        <v>176781</v>
       </c>
       <c r="C231" t="s">
         <v>1511</v>
@@ -28519,7 +28519,7 @@
         <v>19286</v>
       </c>
       <c r="B233" t="n">
-        <v>145485</v>
+        <v>176782</v>
       </c>
       <c r="C233" t="s">
         <v>1521</v>
@@ -28651,7 +28651,7 @@
         <v>19286</v>
       </c>
       <c r="B235" t="n">
-        <v>145486</v>
+        <v>176783</v>
       </c>
       <c r="C235" t="s">
         <v>1536</v>
@@ -28783,7 +28783,7 @@
         <v>19286</v>
       </c>
       <c r="B237" t="n">
-        <v>145487</v>
+        <v>176784</v>
       </c>
       <c r="C237" t="s">
         <v>1549</v>
@@ -28858,7 +28858,7 @@
         <v>19286</v>
       </c>
       <c r="B238" t="n">
-        <v>145488</v>
+        <v>176785</v>
       </c>
       <c r="C238" t="s">
         <v>1557</v>
@@ -28996,7 +28996,7 @@
         <v>19286</v>
       </c>
       <c r="B240" t="n">
-        <v>145489</v>
+        <v>176786</v>
       </c>
       <c r="C240" t="s">
         <v>1569</v>
@@ -29063,7 +29063,7 @@
         <v>19286</v>
       </c>
       <c r="B241" t="n">
-        <v>145490</v>
+        <v>176787</v>
       </c>
       <c r="C241" t="s">
         <v>1576</v>
@@ -29130,7 +29130,7 @@
         <v>19286</v>
       </c>
       <c r="B242" t="n">
-        <v>145491</v>
+        <v>176788</v>
       </c>
       <c r="C242" t="s">
         <v>1582</v>
@@ -29191,7 +29191,7 @@
         <v>19286</v>
       </c>
       <c r="B243" t="n">
-        <v>145492</v>
+        <v>176789</v>
       </c>
       <c r="C243" t="s">
         <v>1588</v>
@@ -29256,7 +29256,7 @@
         <v>19286</v>
       </c>
       <c r="B244" t="n">
-        <v>145493</v>
+        <v>176790</v>
       </c>
       <c r="C244" t="s">
         <v>1596</v>
@@ -29327,7 +29327,7 @@
         <v>19286</v>
       </c>
       <c r="B245" t="n">
-        <v>145494</v>
+        <v>176791</v>
       </c>
       <c r="C245" t="s">
         <v>1602</v>
@@ -29394,7 +29394,7 @@
         <v>19286</v>
       </c>
       <c r="B246" t="n">
-        <v>145495</v>
+        <v>176792</v>
       </c>
       <c r="C246" t="s">
         <v>1609</v>
@@ -29465,7 +29465,7 @@
         <v>19286</v>
       </c>
       <c r="B247" t="n">
-        <v>145496</v>
+        <v>176793</v>
       </c>
       <c r="C247" t="s">
         <v>1613</v>
@@ -29536,7 +29536,7 @@
         <v>19286</v>
       </c>
       <c r="B248" t="n">
-        <v>145497</v>
+        <v>145431</v>
       </c>
       <c r="C248" t="s">
         <v>1622</v>
@@ -29605,7 +29605,7 @@
         <v>19286</v>
       </c>
       <c r="B249" t="n">
-        <v>145498</v>
+        <v>176794</v>
       </c>
       <c r="C249" t="s">
         <v>1628</v>
@@ -29804,7 +29804,7 @@
         <v>19286</v>
       </c>
       <c r="B252" t="n">
-        <v>145499</v>
+        <v>176795</v>
       </c>
       <c r="C252" t="s">
         <v>1646</v>
@@ -29869,7 +29869,7 @@
         <v>19286</v>
       </c>
       <c r="B253" t="n">
-        <v>145500</v>
+        <v>176796</v>
       </c>
       <c r="C253" t="s">
         <v>1651</v>
@@ -29934,7 +29934,7 @@
         <v>19286</v>
       </c>
       <c r="B254" t="n">
-        <v>145501</v>
+        <v>176797</v>
       </c>
       <c r="C254" t="s">
         <v>1658</v>
@@ -30005,7 +30005,7 @@
         <v>19286</v>
       </c>
       <c r="B255" t="n">
-        <v>145502</v>
+        <v>176798</v>
       </c>
       <c r="C255" t="s">
         <v>1664</v>
@@ -30070,7 +30070,7 @@
         <v>19286</v>
       </c>
       <c r="B256" t="n">
-        <v>145503</v>
+        <v>176799</v>
       </c>
       <c r="C256" t="s">
         <v>1670</v>
@@ -30212,7 +30212,7 @@
         <v>19286</v>
       </c>
       <c r="B258" t="n">
-        <v>145504</v>
+        <v>176800</v>
       </c>
       <c r="C258" t="s">
         <v>1682</v>
@@ -30273,7 +30273,7 @@
         <v>19286</v>
       </c>
       <c r="B259" t="n">
-        <v>145505</v>
+        <v>176801</v>
       </c>
       <c r="C259" t="s">
         <v>1689</v>
@@ -30474,7 +30474,7 @@
         <v>19286</v>
       </c>
       <c r="B262" t="n">
-        <v>145506</v>
+        <v>176802</v>
       </c>
       <c r="C262" t="s">
         <v>1709</v>
@@ -30535,7 +30535,7 @@
         <v>19286</v>
       </c>
       <c r="B263" t="n">
-        <v>145507</v>
+        <v>176803</v>
       </c>
       <c r="C263" t="s">
         <v>1715</v>
@@ -30592,7 +30592,7 @@
         <v>19286</v>
       </c>
       <c r="B264" t="n">
-        <v>145508</v>
+        <v>176804</v>
       </c>
       <c r="C264" t="s">
         <v>1721</v>
@@ -30722,7 +30722,7 @@
         <v>19286</v>
       </c>
       <c r="B266" t="n">
-        <v>145509</v>
+        <v>176805</v>
       </c>
       <c r="C266" t="s">
         <v>1733</v>
@@ -30921,7 +30921,7 @@
         <v>19286</v>
       </c>
       <c r="B269" t="n">
-        <v>145510</v>
+        <v>176806</v>
       </c>
       <c r="C269" t="s">
         <v>1751</v>
@@ -30996,7 +30996,7 @@
         <v>19286</v>
       </c>
       <c r="B270" t="n">
-        <v>145511</v>
+        <v>176807</v>
       </c>
       <c r="C270" t="s">
         <v>1760</v>
@@ -31057,7 +31057,7 @@
         <v>19286</v>
       </c>
       <c r="B271" t="n">
-        <v>145512</v>
+        <v>176808</v>
       </c>
       <c r="C271" t="s">
         <v>1766</v>
@@ -31124,7 +31124,7 @@
         <v>19286</v>
       </c>
       <c r="B272" t="n">
-        <v>145513</v>
+        <v>176809</v>
       </c>
       <c r="C272" t="s">
         <v>1773</v>
@@ -31191,7 +31191,7 @@
         <v>19286</v>
       </c>
       <c r="B273" t="n">
-        <v>145514</v>
+        <v>176810</v>
       </c>
       <c r="C273" t="s">
         <v>1779</v>
@@ -31256,7 +31256,7 @@
         <v>19286</v>
       </c>
       <c r="B274" t="n">
-        <v>145515</v>
+        <v>176811</v>
       </c>
       <c r="C274" t="s">
         <v>1786</v>
@@ -31327,7 +31327,7 @@
         <v>19286</v>
       </c>
       <c r="B275" t="n">
-        <v>145516</v>
+        <v>176812</v>
       </c>
       <c r="C275" t="s">
         <v>1791</v>
@@ -31398,7 +31398,7 @@
         <v>19286</v>
       </c>
       <c r="B276" t="n">
-        <v>145517</v>
+        <v>176813</v>
       </c>
       <c r="C276" t="s">
         <v>1797</v>
@@ -31473,7 +31473,7 @@
         <v>19286</v>
       </c>
       <c r="B277" t="n">
-        <v>145518</v>
+        <v>176814</v>
       </c>
       <c r="C277" t="s">
         <v>1805</v>
@@ -31536,7 +31536,7 @@
         <v>19286</v>
       </c>
       <c r="B278" t="n">
-        <v>145519</v>
+        <v>145532</v>
       </c>
       <c r="C278" t="s">
         <v>1811</v>
@@ -31607,7 +31607,7 @@
         <v>19286</v>
       </c>
       <c r="B279" t="n">
-        <v>145428</v>
+        <v>145420</v>
       </c>
       <c r="C279" t="s">
         <v>992</v>
@@ -31668,7 +31668,7 @@
         <v>19286</v>
       </c>
       <c r="B280" t="n">
-        <v>145520</v>
+        <v>176815</v>
       </c>
       <c r="C280" t="s">
         <v>1822</v>
@@ -31729,7 +31729,7 @@
         <v>19286</v>
       </c>
       <c r="B281" t="n">
-        <v>145521</v>
+        <v>176816</v>
       </c>
       <c r="C281" t="s">
         <v>1827</v>
@@ -32001,7 +32001,7 @@
         <v>19286</v>
       </c>
       <c r="B285" t="n">
-        <v>145522</v>
+        <v>176817</v>
       </c>
       <c r="C285" t="s">
         <v>1850</v>
@@ -32076,7 +32076,7 @@
         <v>19286</v>
       </c>
       <c r="B286" t="n">
-        <v>145523</v>
+        <v>176818</v>
       </c>
       <c r="C286" t="s">
         <v>1859</v>
@@ -32151,7 +32151,7 @@
         <v>19286</v>
       </c>
       <c r="B287" t="n">
-        <v>145524</v>
+        <v>176819</v>
       </c>
       <c r="C287" t="s">
         <v>1865</v>
@@ -32212,7 +32212,7 @@
         <v>19286</v>
       </c>
       <c r="B288" t="n">
-        <v>145525</v>
+        <v>176820</v>
       </c>
       <c r="C288" t="s">
         <v>1872</v>
@@ -32340,7 +32340,7 @@
         <v>19286</v>
       </c>
       <c r="B290" t="n">
-        <v>145526</v>
+        <v>176821</v>
       </c>
       <c r="C290" t="s">
         <v>1883</v>
@@ -32405,7 +32405,7 @@
         <v>19286</v>
       </c>
       <c r="B291" t="n">
-        <v>145527</v>
+        <v>176822</v>
       </c>
       <c r="C291" t="s">
         <v>1892</v>
@@ -32466,7 +32466,7 @@
         <v>19286</v>
       </c>
       <c r="B292" t="n">
-        <v>145528</v>
+        <v>176823</v>
       </c>
       <c r="C292" t="s">
         <v>1897</v>
@@ -32527,7 +32527,7 @@
         <v>19286</v>
       </c>
       <c r="B293" t="n">
-        <v>145529</v>
+        <v>176824</v>
       </c>
       <c r="C293" t="s">
         <v>1902</v>
@@ -32588,7 +32588,7 @@
         <v>19286</v>
       </c>
       <c r="B294" t="n">
-        <v>145530</v>
+        <v>176825</v>
       </c>
       <c r="C294" t="s">
         <v>1909</v>
@@ -32659,7 +32659,7 @@
         <v>19286</v>
       </c>
       <c r="B295" t="n">
-        <v>145531</v>
+        <v>176826</v>
       </c>
       <c r="C295" t="s">
         <v>1915</v>
@@ -32734,7 +32734,7 @@
         <v>19286</v>
       </c>
       <c r="B296" t="n">
-        <v>145532</v>
+        <v>176827</v>
       </c>
       <c r="C296" t="s">
         <v>1924</v>
@@ -32801,7 +32801,7 @@
         <v>19286</v>
       </c>
       <c r="B297" t="n">
-        <v>145533</v>
+        <v>176828</v>
       </c>
       <c r="C297" t="s">
         <v>1930</v>
@@ -32862,7 +32862,7 @@
         <v>19286</v>
       </c>
       <c r="B298" t="n">
-        <v>145534</v>
+        <v>176829</v>
       </c>
       <c r="C298" t="s">
         <v>1936</v>
@@ -32937,7 +32937,7 @@
         <v>19286</v>
       </c>
       <c r="B299" t="n">
-        <v>145535</v>
+        <v>176830</v>
       </c>
       <c r="C299" t="s">
         <v>1944</v>
@@ -33069,7 +33069,7 @@
         <v>19286</v>
       </c>
       <c r="B301" t="n">
-        <v>145536</v>
+        <v>176831</v>
       </c>
       <c r="C301" t="s">
         <v>1955</v>
@@ -33136,7 +33136,7 @@
         <v>19286</v>
       </c>
       <c r="B302" t="n">
-        <v>145537</v>
+        <v>176832</v>
       </c>
       <c r="C302" t="s">
         <v>1962</v>
@@ -33211,7 +33211,7 @@
         <v>19286</v>
       </c>
       <c r="B303" t="n">
-        <v>145538</v>
+        <v>176833</v>
       </c>
       <c r="C303" t="s">
         <v>1971</v>
@@ -33286,7 +33286,7 @@
         <v>19286</v>
       </c>
       <c r="B304" t="n">
-        <v>145539</v>
+        <v>176834</v>
       </c>
       <c r="C304" t="s">
         <v>1980</v>
@@ -33550,7 +33550,7 @@
         <v>19286</v>
       </c>
       <c r="B308" t="n">
-        <v>145540</v>
+        <v>176835</v>
       </c>
       <c r="C308" t="s">
         <v>2010</v>
@@ -33621,7 +33621,7 @@
         <v>19286</v>
       </c>
       <c r="B309" t="n">
-        <v>145541</v>
+        <v>176836</v>
       </c>
       <c r="C309" t="s">
         <v>2016</v>
@@ -33692,7 +33692,7 @@
         <v>19286</v>
       </c>
       <c r="B310" t="n">
-        <v>145542</v>
+        <v>176837</v>
       </c>
       <c r="C310" t="s">
         <v>2022</v>
@@ -33753,7 +33753,7 @@
         <v>19286</v>
       </c>
       <c r="B311" t="n">
-        <v>145543</v>
+        <v>176838</v>
       </c>
       <c r="C311" t="s">
         <v>2027</v>
@@ -33828,7 +33828,7 @@
         <v>19286</v>
       </c>
       <c r="B312" t="n">
-        <v>145544</v>
+        <v>176839</v>
       </c>
       <c r="C312" t="s">
         <v>2036</v>
@@ -33903,7 +33903,7 @@
         <v>19286</v>
       </c>
       <c r="B313" t="n">
-        <v>145545</v>
+        <v>176840</v>
       </c>
       <c r="C313" t="s">
         <v>2042</v>
@@ -34035,7 +34035,7 @@
         <v>19286</v>
       </c>
       <c r="B315" t="n">
-        <v>145546</v>
+        <v>176841</v>
       </c>
       <c r="C315" t="s">
         <v>2054</v>
@@ -34106,7 +34106,7 @@
         <v>19286</v>
       </c>
       <c r="B316" t="n">
-        <v>145547</v>
+        <v>176842</v>
       </c>
       <c r="C316" t="s">
         <v>2059</v>
@@ -34238,7 +34238,7 @@
         <v>19286</v>
       </c>
       <c r="B318" t="n">
-        <v>145548</v>
+        <v>176843</v>
       </c>
       <c r="C318" t="s">
         <v>2070</v>
@@ -34305,7 +34305,7 @@
         <v>19286</v>
       </c>
       <c r="B319" t="n">
-        <v>145549</v>
+        <v>176844</v>
       </c>
       <c r="C319" t="s">
         <v>2077</v>
@@ -34372,7 +34372,7 @@
         <v>19286</v>
       </c>
       <c r="B320" t="n">
-        <v>145496</v>
+        <v>145431</v>
       </c>
       <c r="C320" t="s">
         <v>1622</v>
@@ -34502,7 +34502,7 @@
         <v>19286</v>
       </c>
       <c r="B322" t="n">
-        <v>145550</v>
+        <v>176845</v>
       </c>
       <c r="C322" t="s">
         <v>2095</v>
@@ -34638,7 +34638,7 @@
         <v>19286</v>
       </c>
       <c r="B324" t="n">
-        <v>145551</v>
+        <v>176846</v>
       </c>
       <c r="C324" t="s">
         <v>2108</v>
@@ -34699,7 +34699,7 @@
         <v>19286</v>
       </c>
       <c r="B325" t="n">
-        <v>145552</v>
+        <v>176847</v>
       </c>
       <c r="C325" t="s">
         <v>2115</v>
@@ -34770,7 +34770,7 @@
         <v>19286</v>
       </c>
       <c r="B326" t="n">
-        <v>145553</v>
+        <v>176848</v>
       </c>
       <c r="C326" t="s">
         <v>2121</v>
@@ -34841,7 +34841,7 @@
         <v>19286</v>
       </c>
       <c r="B327" t="n">
-        <v>145554</v>
+        <v>176849</v>
       </c>
       <c r="C327" t="s">
         <v>2127</v>
@@ -34908,7 +34908,7 @@
         <v>19286</v>
       </c>
       <c r="B328" t="n">
-        <v>145555</v>
+        <v>176850</v>
       </c>
       <c r="C328" t="s">
         <v>2133</v>
@@ -35034,7 +35034,7 @@
         <v>19286</v>
       </c>
       <c r="B330" t="n">
-        <v>145556</v>
+        <v>176851</v>
       </c>
       <c r="C330" t="s">
         <v>2148</v>
@@ -35105,7 +35105,7 @@
         <v>19286</v>
       </c>
       <c r="B331" t="n">
-        <v>145557</v>
+        <v>176852</v>
       </c>
       <c r="C331" t="s">
         <v>2154</v>
@@ -35233,7 +35233,7 @@
         <v>19286</v>
       </c>
       <c r="B333" t="n">
-        <v>145558</v>
+        <v>176853</v>
       </c>
       <c r="C333" t="s">
         <v>2164</v>
@@ -35371,7 +35371,7 @@
         <v>19286</v>
       </c>
       <c r="B335" t="n">
-        <v>145559</v>
+        <v>176854</v>
       </c>
       <c r="C335" t="s">
         <v>2176</v>
@@ -35438,7 +35438,7 @@
         <v>19286</v>
       </c>
       <c r="B336" t="n">
-        <v>145560</v>
+        <v>176855</v>
       </c>
       <c r="C336" t="s">
         <v>2183</v>
@@ -35572,7 +35572,7 @@
         <v>19286</v>
       </c>
       <c r="B338" t="n">
-        <v>145561</v>
+        <v>176856</v>
       </c>
       <c r="C338" t="s">
         <v>2194</v>
@@ -35702,7 +35702,7 @@
         <v>19286</v>
       </c>
       <c r="B340" t="n">
-        <v>145562</v>
+        <v>176857</v>
       </c>
       <c r="C340" t="s">
         <v>2210</v>
@@ -35773,7 +35773,7 @@
         <v>19286</v>
       </c>
       <c r="B341" t="n">
-        <v>145563</v>
+        <v>176858</v>
       </c>
       <c r="C341" t="s">
         <v>2215</v>
@@ -35844,7 +35844,7 @@
         <v>19286</v>
       </c>
       <c r="B342" t="n">
-        <v>145564</v>
+        <v>176859</v>
       </c>
       <c r="C342" t="s">
         <v>2221</v>
@@ -35974,7 +35974,7 @@
         <v>19286</v>
       </c>
       <c r="B344" t="n">
-        <v>145565</v>
+        <v>176860</v>
       </c>
       <c r="C344" t="s">
         <v>2232</v>
@@ -36106,7 +36106,7 @@
         <v>19286</v>
       </c>
       <c r="B346" t="n">
-        <v>145566</v>
+        <v>176861</v>
       </c>
       <c r="C346" t="s">
         <v>2247</v>
@@ -36171,7 +36171,7 @@
         <v>19286</v>
       </c>
       <c r="B347" t="n">
-        <v>145567</v>
+        <v>176862</v>
       </c>
       <c r="C347" t="s">
         <v>2253</v>
@@ -36236,7 +36236,7 @@
         <v>19286</v>
       </c>
       <c r="B348" t="n">
-        <v>145568</v>
+        <v>176863</v>
       </c>
       <c r="C348" t="s">
         <v>2259</v>
@@ -36301,7 +36301,7 @@
         <v>19286</v>
       </c>
       <c r="B349" t="n">
-        <v>145569</v>
+        <v>176864</v>
       </c>
       <c r="C349" t="s">
         <v>2264</v>
@@ -36368,7 +36368,7 @@
         <v>19286</v>
       </c>
       <c r="B350" t="n">
-        <v>145570</v>
+        <v>176865</v>
       </c>
       <c r="C350" t="s">
         <v>2270</v>
@@ -36429,7 +36429,7 @@
         <v>19286</v>
       </c>
       <c r="B351" t="n">
-        <v>145571</v>
+        <v>176866</v>
       </c>
       <c r="C351" t="s">
         <v>2277</v>
@@ -36555,7 +36555,7 @@
         <v>19286</v>
       </c>
       <c r="B353" t="n">
-        <v>145572</v>
+        <v>176867</v>
       </c>
       <c r="C353" t="s">
         <v>2291</v>
@@ -36622,7 +36622,7 @@
         <v>19286</v>
       </c>
       <c r="B354" t="n">
-        <v>145573</v>
+        <v>176868</v>
       </c>
       <c r="C354" t="s">
         <v>2297</v>
@@ -36687,7 +36687,7 @@
         <v>19286</v>
       </c>
       <c r="B355" t="n">
-        <v>145574</v>
+        <v>176869</v>
       </c>
       <c r="C355" t="s">
         <v>2302</v>
@@ -36762,7 +36762,7 @@
         <v>19286</v>
       </c>
       <c r="B356" t="n">
-        <v>145575</v>
+        <v>176870</v>
       </c>
       <c r="C356" t="s">
         <v>2311</v>
@@ -36823,7 +36823,7 @@
         <v>19286</v>
       </c>
       <c r="B357" t="n">
-        <v>145576</v>
+        <v>176871</v>
       </c>
       <c r="C357" t="s">
         <v>2317</v>
@@ -36898,7 +36898,7 @@
         <v>19286</v>
       </c>
       <c r="B358" t="n">
-        <v>145577</v>
+        <v>176872</v>
       </c>
       <c r="C358" t="s">
         <v>2326</v>
@@ -37030,7 +37030,7 @@
         <v>19286</v>
       </c>
       <c r="B360" t="n">
-        <v>145578</v>
+        <v>176873</v>
       </c>
       <c r="C360" t="s">
         <v>2337</v>
@@ -37095,7 +37095,7 @@
         <v>19286</v>
       </c>
       <c r="B361" t="n">
-        <v>145579</v>
+        <v>176874</v>
       </c>
       <c r="C361" t="s">
         <v>2344</v>
@@ -37156,7 +37156,7 @@
         <v>19286</v>
       </c>
       <c r="B362" t="n">
-        <v>145580</v>
+        <v>176875</v>
       </c>
       <c r="C362" t="s">
         <v>2349</v>
@@ -37292,7 +37292,7 @@
         <v>19286</v>
       </c>
       <c r="B364" t="n">
-        <v>145581</v>
+        <v>176876</v>
       </c>
       <c r="C364" t="s">
         <v>2361</v>
@@ -37420,7 +37420,7 @@
         <v>19286</v>
       </c>
       <c r="B366" t="n">
-        <v>145582</v>
+        <v>176877</v>
       </c>
       <c r="C366" t="s">
         <v>2372</v>
@@ -37566,7 +37566,7 @@
         <v>19286</v>
       </c>
       <c r="B368" t="n">
-        <v>145583</v>
+        <v>176878</v>
       </c>
       <c r="C368" t="s">
         <v>2386</v>
@@ -37749,7 +37749,7 @@
         <v>19286</v>
       </c>
       <c r="B371" t="n">
-        <v>145584</v>
+        <v>176879</v>
       </c>
       <c r="C371" t="s">
         <v>2403</v>
@@ -37814,7 +37814,7 @@
         <v>19286</v>
       </c>
       <c r="B372" t="n">
-        <v>145585</v>
+        <v>176880</v>
       </c>
       <c r="C372" t="s">
         <v>2410</v>
@@ -37885,7 +37885,7 @@
         <v>19286</v>
       </c>
       <c r="B373" t="n">
-        <v>145586</v>
+        <v>176881</v>
       </c>
       <c r="C373" t="s">
         <v>2417</v>
@@ -37946,7 +37946,7 @@
         <v>19286</v>
       </c>
       <c r="B374" t="n">
-        <v>145587</v>
+        <v>176882</v>
       </c>
       <c r="C374" t="s">
         <v>2422</v>
@@ -38011,7 +38011,7 @@
         <v>19286</v>
       </c>
       <c r="B375" t="n">
-        <v>145588</v>
+        <v>176883</v>
       </c>
       <c r="C375" t="s">
         <v>2428</v>
@@ -38078,7 +38078,7 @@
         <v>19286</v>
       </c>
       <c r="B376" t="n">
-        <v>145589</v>
+        <v>176884</v>
       </c>
       <c r="C376" t="s">
         <v>2433</v>
@@ -38143,7 +38143,7 @@
         <v>19286</v>
       </c>
       <c r="B377" t="n">
-        <v>145590</v>
+        <v>176885</v>
       </c>
       <c r="C377" t="s">
         <v>2439</v>
@@ -38431,7 +38431,7 @@
         <v>19286</v>
       </c>
       <c r="B381" t="n">
-        <v>145591</v>
+        <v>176886</v>
       </c>
       <c r="C381" t="s">
         <v>2468</v>
@@ -38492,7 +38492,7 @@
         <v>19286</v>
       </c>
       <c r="B382" t="n">
-        <v>145592</v>
+        <v>176887</v>
       </c>
       <c r="C382" t="s">
         <v>2474</v>
@@ -38553,7 +38553,7 @@
         <v>19286</v>
       </c>
       <c r="B383" t="n">
-        <v>145593</v>
+        <v>176888</v>
       </c>
       <c r="C383" t="s">
         <v>2481</v>
@@ -38620,7 +38620,7 @@
         <v>19286</v>
       </c>
       <c r="B384" t="n">
-        <v>145594</v>
+        <v>176889</v>
       </c>
       <c r="C384" t="s">
         <v>2487</v>
@@ -38687,7 +38687,7 @@
         <v>19286</v>
       </c>
       <c r="B385" t="n">
-        <v>145595</v>
+        <v>176890</v>
       </c>
       <c r="C385" t="s">
         <v>2493</v>
@@ -38756,7 +38756,7 @@
         <v>19286</v>
       </c>
       <c r="B386" t="n">
-        <v>145596</v>
+        <v>176891</v>
       </c>
       <c r="C386" t="s">
         <v>2502</v>
@@ -38827,7 +38827,7 @@
         <v>19286</v>
       </c>
       <c r="B387" t="n">
-        <v>145597</v>
+        <v>176892</v>
       </c>
       <c r="C387" t="s">
         <v>2508</v>
@@ -38894,7 +38894,7 @@
         <v>19286</v>
       </c>
       <c r="B388" t="n">
-        <v>145598</v>
+        <v>176893</v>
       </c>
       <c r="C388" t="s">
         <v>2515</v>
@@ -38959,7 +38959,7 @@
         <v>19286</v>
       </c>
       <c r="B389" t="n">
-        <v>145599</v>
+        <v>176894</v>
       </c>
       <c r="C389" t="s">
         <v>2520</v>
@@ -39024,7 +39024,7 @@
         <v>19286</v>
       </c>
       <c r="B390" t="n">
-        <v>145600</v>
+        <v>176895</v>
       </c>
       <c r="C390" t="s">
         <v>2529</v>
@@ -39095,7 +39095,7 @@
         <v>19286</v>
       </c>
       <c r="B391" t="n">
-        <v>145601</v>
+        <v>176896</v>
       </c>
       <c r="C391" t="s">
         <v>2534</v>
@@ -39156,7 +39156,7 @@
         <v>19286</v>
       </c>
       <c r="B392" t="n">
-        <v>145602</v>
+        <v>176897</v>
       </c>
       <c r="C392" t="s">
         <v>2540</v>
@@ -39227,7 +39227,7 @@
         <v>19286</v>
       </c>
       <c r="B393" t="n">
-        <v>145603</v>
+        <v>176898</v>
       </c>
       <c r="C393" t="s">
         <v>2546</v>
@@ -39292,7 +39292,7 @@
         <v>19286</v>
       </c>
       <c r="B394" t="n">
-        <v>145604</v>
+        <v>176899</v>
       </c>
       <c r="C394" t="s">
         <v>2552</v>
@@ -39430,7 +39430,7 @@
         <v>19286</v>
       </c>
       <c r="B396" t="n">
-        <v>145605</v>
+        <v>176900</v>
       </c>
       <c r="C396" t="s">
         <v>2564</v>
@@ -39501,7 +39501,7 @@
         <v>19286</v>
       </c>
       <c r="B397" t="n">
-        <v>145606</v>
+        <v>176901</v>
       </c>
       <c r="C397" t="s">
         <v>2569</v>
@@ -39568,7 +39568,7 @@
         <v>19286</v>
       </c>
       <c r="B398" t="n">
-        <v>145607</v>
+        <v>176902</v>
       </c>
       <c r="C398" t="s">
         <v>2575</v>
@@ -39633,7 +39633,7 @@
         <v>19286</v>
       </c>
       <c r="B399" t="n">
-        <v>145608</v>
+        <v>176903</v>
       </c>
       <c r="C399" t="s">
         <v>2581</v>
@@ -39708,7 +39708,7 @@
         <v>19286</v>
       </c>
       <c r="B400" t="n">
-        <v>145609</v>
+        <v>176904</v>
       </c>
       <c r="C400" t="s">
         <v>2589</v>
@@ -39846,7 +39846,7 @@
         <v>19286</v>
       </c>
       <c r="B402" t="n">
-        <v>145610</v>
+        <v>176905</v>
       </c>
       <c r="C402" t="s">
         <v>2602</v>
@@ -39968,7 +39968,7 @@
         <v>19286</v>
       </c>
       <c r="B404" t="n">
-        <v>145611</v>
+        <v>176906</v>
       </c>
       <c r="C404" t="s">
         <v>2613</v>
@@ -40238,7 +40238,7 @@
         <v>19286</v>
       </c>
       <c r="B408" t="n">
-        <v>145612</v>
+        <v>176907</v>
       </c>
       <c r="C408" t="s">
         <v>2638</v>
@@ -40307,7 +40307,7 @@
         <v>19286</v>
       </c>
       <c r="B409" t="n">
-        <v>145613</v>
+        <v>176908</v>
       </c>
       <c r="C409" t="s">
         <v>2646</v>
@@ -40372,7 +40372,7 @@
         <v>19286</v>
       </c>
       <c r="B410" t="n">
-        <v>145614</v>
+        <v>176909</v>
       </c>
       <c r="C410" t="s">
         <v>2653</v>
@@ -40510,7 +40510,7 @@
         <v>19286</v>
       </c>
       <c r="B412" t="n">
-        <v>145615</v>
+        <v>176910</v>
       </c>
       <c r="C412" t="s">
         <v>2666</v>
@@ -40575,7 +40575,7 @@
         <v>19286</v>
       </c>
       <c r="B413" t="n">
-        <v>145616</v>
+        <v>176911</v>
       </c>
       <c r="C413" t="s">
         <v>2673</v>
@@ -40853,7 +40853,7 @@
         <v>19286</v>
       </c>
       <c r="B417" t="n">
-        <v>145617</v>
+        <v>176912</v>
       </c>
       <c r="C417" t="s">
         <v>2702</v>
@@ -40914,7 +40914,7 @@
         <v>19286</v>
       </c>
       <c r="B418" t="n">
-        <v>145618</v>
+        <v>176913</v>
       </c>
       <c r="C418" t="s">
         <v>2707</v>
@@ -41097,7 +41097,7 @@
         <v>19286</v>
       </c>
       <c r="B421" t="n">
-        <v>145619</v>
+        <v>176914</v>
       </c>
       <c r="C421" t="s">
         <v>2725</v>
@@ -41310,7 +41310,7 @@
         <v>19286</v>
       </c>
       <c r="B424" t="n">
-        <v>145620</v>
+        <v>176915</v>
       </c>
       <c r="C424" t="s">
         <v>2739</v>
@@ -41375,7 +41375,7 @@
         <v>19286</v>
       </c>
       <c r="B425" t="n">
-        <v>145621</v>
+        <v>176916</v>
       </c>
       <c r="C425" t="s">
         <v>2748</v>
@@ -41446,7 +41446,7 @@
         <v>19286</v>
       </c>
       <c r="B426" t="n">
-        <v>145622</v>
+        <v>145537</v>
       </c>
       <c r="C426" t="s">
         <v>2754</v>
@@ -41513,7 +41513,7 @@
         <v>19286</v>
       </c>
       <c r="B427" t="n">
-        <v>145623</v>
+        <v>176917</v>
       </c>
       <c r="C427" t="s">
         <v>2761</v>
@@ -41578,7 +41578,7 @@
         <v>19286</v>
       </c>
       <c r="B428" t="n">
-        <v>145624</v>
+        <v>176918</v>
       </c>
       <c r="C428" t="s">
         <v>2767</v>
@@ -41643,7 +41643,7 @@
         <v>19286</v>
       </c>
       <c r="B429" t="n">
-        <v>145625</v>
+        <v>176919</v>
       </c>
       <c r="C429" t="s">
         <v>2774</v>
@@ -41783,7 +41783,7 @@
         <v>19286</v>
       </c>
       <c r="B431" t="n">
-        <v>145626</v>
+        <v>145510</v>
       </c>
       <c r="C431" t="s">
         <v>2787</v>
@@ -41844,7 +41844,7 @@
         <v>19286</v>
       </c>
       <c r="B432" t="n">
-        <v>145627</v>
+        <v>176920</v>
       </c>
       <c r="C432" t="s">
         <v>2794</v>
@@ -41909,7 +41909,7 @@
         <v>19286</v>
       </c>
       <c r="B433" t="n">
-        <v>145628</v>
+        <v>176921</v>
       </c>
       <c r="C433" t="s">
         <v>2801</v>
@@ -42167,7 +42167,7 @@
         <v>19286</v>
       </c>
       <c r="B437" t="n">
-        <v>145629</v>
+        <v>176922</v>
       </c>
       <c r="C437" t="s">
         <v>2825</v>
@@ -42447,7 +42447,7 @@
         <v>19286</v>
       </c>
       <c r="B441" t="n">
-        <v>145630</v>
+        <v>176923</v>
       </c>
       <c r="C441" t="s">
         <v>2852</v>
@@ -42589,7 +42589,7 @@
         <v>19286</v>
       </c>
       <c r="B443" t="n">
-        <v>145631</v>
+        <v>176924</v>
       </c>
       <c r="C443" t="s">
         <v>2863</v>
@@ -42656,7 +42656,7 @@
         <v>19286</v>
       </c>
       <c r="B444" t="n">
-        <v>145632</v>
+        <v>176925</v>
       </c>
       <c r="C444" t="s">
         <v>2869</v>
@@ -42727,7 +42727,7 @@
         <v>19286</v>
       </c>
       <c r="B445" t="n">
-        <v>145633</v>
+        <v>176926</v>
       </c>
       <c r="C445" t="s">
         <v>2874</v>
@@ -42798,7 +42798,7 @@
         <v>19286</v>
       </c>
       <c r="B446" t="n">
-        <v>145634</v>
+        <v>176927</v>
       </c>
       <c r="C446" t="s">
         <v>2879</v>
@@ -42869,7 +42869,7 @@
         <v>19286</v>
       </c>
       <c r="B447" t="n">
-        <v>145635</v>
+        <v>176928</v>
       </c>
       <c r="C447" t="s">
         <v>2888</v>
@@ -42944,7 +42944,7 @@
         <v>19286</v>
       </c>
       <c r="B448" t="n">
-        <v>145636</v>
+        <v>176929</v>
       </c>
       <c r="C448" t="s">
         <v>2894</v>
@@ -43072,7 +43072,7 @@
         <v>19286</v>
       </c>
       <c r="B450" t="n">
-        <v>145637</v>
+        <v>176930</v>
       </c>
       <c r="C450" t="s">
         <v>2906</v>
@@ -43210,7 +43210,7 @@
         <v>19286</v>
       </c>
       <c r="B452" t="n">
-        <v>145638</v>
+        <v>176931</v>
       </c>
       <c r="C452" t="s">
         <v>2918</v>
@@ -43277,7 +43277,7 @@
         <v>19286</v>
       </c>
       <c r="B453" t="n">
-        <v>145639</v>
+        <v>176932</v>
       </c>
       <c r="C453" t="s">
         <v>2923</v>
@@ -43352,7 +43352,7 @@
         <v>19286</v>
       </c>
       <c r="B454" t="n">
-        <v>145640</v>
+        <v>176933</v>
       </c>
       <c r="C454" t="s">
         <v>2931</v>
@@ -43413,7 +43413,7 @@
         <v>19286</v>
       </c>
       <c r="B455" t="n">
-        <v>145641</v>
+        <v>176934</v>
       </c>
       <c r="C455" t="s">
         <v>2937</v>
@@ -43478,7 +43478,7 @@
         <v>19286</v>
       </c>
       <c r="B456" t="n">
-        <v>145642</v>
+        <v>176935</v>
       </c>
       <c r="C456" t="s">
         <v>2943</v>
@@ -43736,7 +43736,7 @@
         <v>19286</v>
       </c>
       <c r="B460" t="n">
-        <v>145643</v>
+        <v>176936</v>
       </c>
       <c r="C460" t="s">
         <v>2965</v>
@@ -43803,7 +43803,7 @@
         <v>19286</v>
       </c>
       <c r="B461" t="n">
-        <v>145644</v>
+        <v>176937</v>
       </c>
       <c r="C461" t="s">
         <v>2971</v>
@@ -43878,7 +43878,7 @@
         <v>19286</v>
       </c>
       <c r="B462" t="n">
-        <v>145645</v>
+        <v>176938</v>
       </c>
       <c r="C462" t="s">
         <v>2980</v>
@@ -43949,7 +43949,7 @@
         <v>19286</v>
       </c>
       <c r="B463" t="n">
-        <v>145646</v>
+        <v>176939</v>
       </c>
       <c r="C463" t="s">
         <v>2989</v>
@@ -44020,7 +44020,7 @@
         <v>19286</v>
       </c>
       <c r="B464" t="n">
-        <v>145647</v>
+        <v>176940</v>
       </c>
       <c r="C464" t="s">
         <v>2994</v>
@@ -44081,7 +44081,7 @@
         <v>19286</v>
       </c>
       <c r="B465" t="n">
-        <v>145648</v>
+        <v>176941</v>
       </c>
       <c r="C465" t="s">
         <v>3001</v>
@@ -44142,7 +44142,7 @@
         <v>19286</v>
       </c>
       <c r="B466" t="n">
-        <v>145649</v>
+        <v>176942</v>
       </c>
       <c r="C466" t="s">
         <v>3007</v>
@@ -44203,7 +44203,7 @@
         <v>19286</v>
       </c>
       <c r="B467" t="n">
-        <v>145650</v>
+        <v>176943</v>
       </c>
       <c r="C467" t="s">
         <v>3014</v>
@@ -44268,7 +44268,7 @@
         <v>19286</v>
       </c>
       <c r="B468" t="n">
-        <v>145651</v>
+        <v>176944</v>
       </c>
       <c r="C468" t="s">
         <v>3020</v>
@@ -44396,7 +44396,7 @@
         <v>19286</v>
       </c>
       <c r="B470" t="n">
-        <v>145652</v>
+        <v>176945</v>
       </c>
       <c r="C470" t="s">
         <v>3032</v>
@@ -44463,7 +44463,7 @@
         <v>19286</v>
       </c>
       <c r="B471" t="n">
-        <v>145653</v>
+        <v>176946</v>
       </c>
       <c r="C471" t="s">
         <v>3038</v>
@@ -44534,7 +44534,7 @@
         <v>19286</v>
       </c>
       <c r="B472" t="n">
-        <v>145654</v>
+        <v>176947</v>
       </c>
       <c r="C472" t="s">
         <v>3046</v>
@@ -44605,7 +44605,7 @@
         <v>19286</v>
       </c>
       <c r="B473" t="n">
-        <v>145655</v>
+        <v>176948</v>
       </c>
       <c r="C473" t="s">
         <v>3050</v>
@@ -44672,7 +44672,7 @@
         <v>19286</v>
       </c>
       <c r="B474" t="n">
-        <v>145656</v>
+        <v>176949</v>
       </c>
       <c r="C474" t="s">
         <v>3056</v>
@@ -44747,7 +44747,7 @@
         <v>19286</v>
       </c>
       <c r="B475" t="n">
-        <v>145657</v>
+        <v>176950</v>
       </c>
       <c r="C475" t="s">
         <v>3064</v>
@@ -44879,7 +44879,7 @@
         <v>19286</v>
       </c>
       <c r="B477" t="n">
-        <v>145658</v>
+        <v>176951</v>
       </c>
       <c r="C477" t="s">
         <v>3075</v>
@@ -44944,7 +44944,7 @@
         <v>19286</v>
       </c>
       <c r="B478" t="n">
-        <v>145659</v>
+        <v>176952</v>
       </c>
       <c r="C478" t="s">
         <v>3081</v>
@@ -45072,7 +45072,7 @@
         <v>19286</v>
       </c>
       <c r="B480" t="n">
-        <v>145660</v>
+        <v>176953</v>
       </c>
       <c r="C480" t="s">
         <v>3091</v>
@@ -45206,7 +45206,7 @@
         <v>19286</v>
       </c>
       <c r="B482" t="n">
-        <v>145661</v>
+        <v>176954</v>
       </c>
       <c r="C482" t="s">
         <v>3103</v>
@@ -45277,7 +45277,7 @@
         <v>19286</v>
       </c>
       <c r="B483" t="n">
-        <v>145662</v>
+        <v>176955</v>
       </c>
       <c r="C483" t="s">
         <v>3110</v>
@@ -45413,7 +45413,7 @@
         <v>19286</v>
       </c>
       <c r="B485" t="n">
-        <v>145663</v>
+        <v>176956</v>
       </c>
       <c r="C485" t="s">
         <v>3122</v>
@@ -45484,7 +45484,7 @@
         <v>19286</v>
       </c>
       <c r="B486" t="n">
-        <v>145664</v>
+        <v>176957</v>
       </c>
       <c r="C486" t="s">
         <v>3128</v>
@@ -45628,7 +45628,7 @@
         <v>19286</v>
       </c>
       <c r="B488" t="n">
-        <v>145665</v>
+        <v>176958</v>
       </c>
       <c r="C488" t="s">
         <v>3142</v>
@@ -45760,7 +45760,7 @@
         <v>19286</v>
       </c>
       <c r="B490" t="n">
-        <v>145666</v>
+        <v>176959</v>
       </c>
       <c r="C490" t="s">
         <v>3155</v>
@@ -45827,7 +45827,7 @@
         <v>19286</v>
       </c>
       <c r="B491" t="n">
-        <v>145667</v>
+        <v>176960</v>
       </c>
       <c r="C491" t="s">
         <v>3160</v>
@@ -45959,7 +45959,7 @@
         <v>19286</v>
       </c>
       <c r="B493" t="n">
-        <v>145668</v>
+        <v>176961</v>
       </c>
       <c r="C493" t="s">
         <v>3173</v>
@@ -46024,7 +46024,7 @@
         <v>19286</v>
       </c>
       <c r="B494" t="n">
-        <v>145669</v>
+        <v>176962</v>
       </c>
       <c r="C494" t="s">
         <v>3181</v>
@@ -46156,7 +46156,7 @@
         <v>19286</v>
       </c>
       <c r="B496" t="n">
-        <v>145670</v>
+        <v>176963</v>
       </c>
       <c r="C496" t="s">
         <v>3195</v>
@@ -46227,7 +46227,7 @@
         <v>19286</v>
       </c>
       <c r="B497" t="n">
-        <v>145671</v>
+        <v>176964</v>
       </c>
       <c r="C497" t="s">
         <v>3200</v>
@@ -46288,7 +46288,7 @@
         <v>19286</v>
       </c>
       <c r="B498" t="n">
-        <v>145672</v>
+        <v>176965</v>
       </c>
       <c r="C498" t="s">
         <v>3206</v>
@@ -46481,7 +46481,7 @@
         <v>19286</v>
       </c>
       <c r="B501" t="n">
-        <v>145673</v>
+        <v>176966</v>
       </c>
       <c r="C501" t="s">
         <v>3223</v>
@@ -46607,7 +46607,7 @@
         <v>19286</v>
       </c>
       <c r="B503" t="n">
-        <v>145674</v>
+        <v>176967</v>
       </c>
       <c r="C503" t="s">
         <v>3235</v>
@@ -46672,7 +46672,7 @@
         <v>19286</v>
       </c>
       <c r="B504" t="n">
-        <v>145675</v>
+        <v>176968</v>
       </c>
       <c r="C504" t="s">
         <v>3242</v>
@@ -46737,7 +46737,7 @@
         <v>19286</v>
       </c>
       <c r="B505" t="n">
-        <v>145676</v>
+        <v>176969</v>
       </c>
       <c r="C505" t="s">
         <v>3251</v>
@@ -46808,7 +46808,7 @@
         <v>19286</v>
       </c>
       <c r="B506" t="n">
-        <v>145677</v>
+        <v>176970</v>
       </c>
       <c r="C506" t="s">
         <v>3256</v>
@@ -46873,7 +46873,7 @@
         <v>19286</v>
       </c>
       <c r="B507" t="n">
-        <v>145678</v>
+        <v>176971</v>
       </c>
       <c r="C507" t="s">
         <v>3264</v>
@@ -47003,7 +47003,7 @@
         <v>19286</v>
       </c>
       <c r="B509" t="n">
-        <v>145679</v>
+        <v>176972</v>
       </c>
       <c r="C509" t="s">
         <v>3278</v>
@@ -47070,7 +47070,7 @@
         <v>19286</v>
       </c>
       <c r="B510" t="n">
-        <v>145680</v>
+        <v>176973</v>
       </c>
       <c r="C510" t="s">
         <v>3284</v>
@@ -47131,7 +47131,7 @@
         <v>19286</v>
       </c>
       <c r="B511" t="n">
-        <v>145681</v>
+        <v>176974</v>
       </c>
       <c r="C511" t="s">
         <v>3289</v>
@@ -47269,7 +47269,7 @@
         <v>19286</v>
       </c>
       <c r="B513" t="n">
-        <v>145682</v>
+        <v>176975</v>
       </c>
       <c r="C513" t="s">
         <v>3300</v>
@@ -47340,7 +47340,7 @@
         <v>19286</v>
       </c>
       <c r="B514" t="n">
-        <v>145683</v>
+        <v>176976</v>
       </c>
       <c r="C514" t="s">
         <v>3306</v>
@@ -47612,7 +47612,7 @@
         <v>19286</v>
       </c>
       <c r="B518" t="n">
-        <v>145684</v>
+        <v>176977</v>
       </c>
       <c r="C518" t="s">
         <v>3330</v>
@@ -47683,7 +47683,7 @@
         <v>19286</v>
       </c>
       <c r="B519" t="n">
-        <v>145685</v>
+        <v>176978</v>
       </c>
       <c r="C519" t="s">
         <v>3335</v>
@@ -47754,7 +47754,7 @@
         <v>19286</v>
       </c>
       <c r="B520" t="n">
-        <v>145686</v>
+        <v>176979</v>
       </c>
       <c r="C520" t="s">
         <v>3341</v>
@@ -47819,7 +47819,7 @@
         <v>19286</v>
       </c>
       <c r="B521" t="n">
-        <v>145687</v>
+        <v>176980</v>
       </c>
       <c r="C521" t="s">
         <v>3347</v>
@@ -47876,7 +47876,7 @@
         <v>19286</v>
       </c>
       <c r="B522" t="n">
-        <v>145688</v>
+        <v>176981</v>
       </c>
       <c r="C522" t="s">
         <v>3353</v>
@@ -47945,7 +47945,7 @@
         <v>19286</v>
       </c>
       <c r="B523" t="n">
-        <v>145689</v>
+        <v>176982</v>
       </c>
       <c r="C523" t="s">
         <v>3358</v>
@@ -48014,7 +48014,7 @@
         <v>19286</v>
       </c>
       <c r="B524" t="n">
-        <v>145690</v>
+        <v>176983</v>
       </c>
       <c r="C524" t="s">
         <v>3367</v>
@@ -48071,7 +48071,7 @@
         <v>19286</v>
       </c>
       <c r="B525" t="n">
-        <v>145691</v>
+        <v>176984</v>
       </c>
       <c r="C525" t="s">
         <v>3373</v>
@@ -48138,7 +48138,7 @@
         <v>19286</v>
       </c>
       <c r="B526" t="n">
-        <v>145692</v>
+        <v>176985</v>
       </c>
       <c r="C526" t="s">
         <v>3379</v>
@@ -48412,7 +48412,7 @@
         <v>19286</v>
       </c>
       <c r="B530" t="n">
-        <v>145693</v>
+        <v>176986</v>
       </c>
       <c r="C530" t="s">
         <v>3405</v>
@@ -48554,7 +48554,7 @@
         <v>19286</v>
       </c>
       <c r="B532" t="n">
-        <v>145694</v>
+        <v>176987</v>
       </c>
       <c r="C532" t="s">
         <v>3419</v>
@@ -48629,7 +48629,7 @@
         <v>19286</v>
       </c>
       <c r="B533" t="n">
-        <v>145695</v>
+        <v>176988</v>
       </c>
       <c r="C533" t="s">
         <v>3427</v>
@@ -48765,7 +48765,7 @@
         <v>19286</v>
       </c>
       <c r="B535" t="n">
-        <v>145696</v>
+        <v>176989</v>
       </c>
       <c r="C535" t="s">
         <v>3439</v>
@@ -48822,7 +48822,7 @@
         <v>19286</v>
       </c>
       <c r="B536" t="n">
-        <v>145697</v>
+        <v>176990</v>
       </c>
       <c r="C536" t="s">
         <v>3445</v>
@@ -48887,7 +48887,7 @@
         <v>19286</v>
       </c>
       <c r="B537" t="n">
-        <v>145698</v>
+        <v>176991</v>
       </c>
       <c r="C537" t="s">
         <v>3451</v>
@@ -48952,7 +48952,7 @@
         <v>19286</v>
       </c>
       <c r="B538" t="n">
-        <v>145699</v>
+        <v>176992</v>
       </c>
       <c r="C538" t="s">
         <v>3456</v>
@@ -49023,7 +49023,7 @@
         <v>19286</v>
       </c>
       <c r="B539" t="n">
-        <v>145700</v>
+        <v>176993</v>
       </c>
       <c r="C539" t="s">
         <v>3462</v>
@@ -49088,7 +49088,7 @@
         <v>19286</v>
       </c>
       <c r="B540" t="n">
-        <v>145701</v>
+        <v>176994</v>
       </c>
       <c r="C540" t="s">
         <v>3468</v>
@@ -49159,7 +49159,7 @@
         <v>19286</v>
       </c>
       <c r="B541" t="n">
-        <v>145702</v>
+        <v>176995</v>
       </c>
       <c r="C541" t="s">
         <v>3473</v>
@@ -49230,7 +49230,7 @@
         <v>19286</v>
       </c>
       <c r="B542" t="n">
-        <v>145703</v>
+        <v>176996</v>
       </c>
       <c r="C542" t="s">
         <v>3478</v>
@@ -49362,7 +49362,7 @@
         <v>19286</v>
       </c>
       <c r="B544" t="n">
-        <v>145704</v>
+        <v>176997</v>
       </c>
       <c r="C544" t="s">
         <v>3489</v>
@@ -49508,7 +49508,7 @@
         <v>19286</v>
       </c>
       <c r="B546" t="n">
-        <v>145705</v>
+        <v>176998</v>
       </c>
       <c r="C546" t="s">
         <v>3503</v>
@@ -49579,7 +49579,7 @@
         <v>19286</v>
       </c>
       <c r="B547" t="n">
-        <v>145706</v>
+        <v>176999</v>
       </c>
       <c r="C547" t="s">
         <v>3508</v>
@@ -49636,7 +49636,7 @@
         <v>19286</v>
       </c>
       <c r="B548" t="n">
-        <v>145707</v>
+        <v>177000</v>
       </c>
       <c r="C548" t="s">
         <v>3513</v>
@@ -49707,7 +49707,7 @@
         <v>19286</v>
       </c>
       <c r="B549" t="n">
-        <v>145708</v>
+        <v>177001</v>
       </c>
       <c r="C549" t="s">
         <v>3519</v>
@@ -49774,7 +49774,7 @@
         <v>19286</v>
       </c>
       <c r="B550" t="n">
-        <v>145709</v>
+        <v>177002</v>
       </c>
       <c r="C550" t="s">
         <v>3525</v>
@@ -49845,7 +49845,7 @@
         <v>19286</v>
       </c>
       <c r="B551" t="n">
-        <v>145710</v>
+        <v>177003</v>
       </c>
       <c r="C551" t="s">
         <v>3530</v>
@@ -49979,7 +49979,7 @@
         <v>19286</v>
       </c>
       <c r="B553" t="n">
-        <v>145711</v>
+        <v>177004</v>
       </c>
       <c r="C553" t="s">
         <v>3539</v>
@@ -50048,7 +50048,7 @@
         <v>19286</v>
       </c>
       <c r="B554" t="n">
-        <v>145712</v>
+        <v>177005</v>
       </c>
       <c r="C554" t="s">
         <v>3548</v>
@@ -50180,7 +50180,7 @@
         <v>19286</v>
       </c>
       <c r="B556" t="n">
-        <v>145713</v>
+        <v>177006</v>
       </c>
       <c r="C556" t="s">
         <v>3559</v>
@@ -50241,7 +50241,7 @@
         <v>19286</v>
       </c>
       <c r="B557" t="n">
-        <v>145714</v>
+        <v>177007</v>
       </c>
       <c r="C557" t="s">
         <v>3565</v>
@@ -50312,7 +50312,7 @@
         <v>19286</v>
       </c>
       <c r="B558" t="n">
-        <v>145715</v>
+        <v>177008</v>
       </c>
       <c r="C558" t="s">
         <v>3570</v>
@@ -50377,7 +50377,7 @@
         <v>19286</v>
       </c>
       <c r="B559" t="n">
-        <v>145716</v>
+        <v>177009</v>
       </c>
       <c r="C559" t="s">
         <v>3576</v>
@@ -50452,7 +50452,7 @@
         <v>19286</v>
       </c>
       <c r="B560" t="n">
-        <v>145717</v>
+        <v>177010</v>
       </c>
       <c r="C560" t="s">
         <v>3584</v>
@@ -50509,7 +50509,7 @@
         <v>19286</v>
       </c>
       <c r="B561" t="n">
-        <v>145718</v>
+        <v>177011</v>
       </c>
       <c r="C561" t="s">
         <v>3591</v>
@@ -50580,7 +50580,7 @@
         <v>19286</v>
       </c>
       <c r="B562" t="n">
-        <v>145719</v>
+        <v>177012</v>
       </c>
       <c r="C562" t="s">
         <v>3596</v>
@@ -50645,7 +50645,7 @@
         <v>19286</v>
       </c>
       <c r="B563" t="n">
-        <v>145720</v>
+        <v>177013</v>
       </c>
       <c r="C563" t="s">
         <v>3603</v>
@@ -50781,7 +50781,7 @@
         <v>19286</v>
       </c>
       <c r="B565" t="n">
-        <v>145721</v>
+        <v>177014</v>
       </c>
       <c r="C565" t="s">
         <v>3616</v>
@@ -50842,7 +50842,7 @@
         <v>19286</v>
       </c>
       <c r="B566" t="n">
-        <v>145722</v>
+        <v>177015</v>
       </c>
       <c r="C566" t="s">
         <v>3623</v>
@@ -50909,7 +50909,7 @@
         <v>19286</v>
       </c>
       <c r="B567" t="n">
-        <v>145723</v>
+        <v>177016</v>
       </c>
       <c r="C567" t="s">
         <v>3629</v>
@@ -51037,7 +51037,7 @@
         <v>19286</v>
       </c>
       <c r="B569" t="n">
-        <v>145724</v>
+        <v>177017</v>
       </c>
       <c r="C569" t="s">
         <v>3640</v>
@@ -51104,7 +51104,7 @@
         <v>19286</v>
       </c>
       <c r="B570" t="n">
-        <v>145725</v>
+        <v>177018</v>
       </c>
       <c r="C570" t="s">
         <v>3646</v>
@@ -51171,7 +51171,7 @@
         <v>19286</v>
       </c>
       <c r="B571" t="n">
-        <v>145726</v>
+        <v>177019</v>
       </c>
       <c r="C571" t="s">
         <v>3653</v>
@@ -51238,7 +51238,7 @@
         <v>19286</v>
       </c>
       <c r="B572" t="n">
-        <v>145727</v>
+        <v>177020</v>
       </c>
       <c r="C572" t="s">
         <v>3659</v>
@@ -51378,7 +51378,7 @@
         <v>19286</v>
       </c>
       <c r="B574" t="n">
-        <v>145728</v>
+        <v>177021</v>
       </c>
       <c r="C574" t="s">
         <v>3673</v>
@@ -51443,7 +51443,7 @@
         <v>19286</v>
       </c>
       <c r="B575" t="n">
-        <v>145729</v>
+        <v>177022</v>
       </c>
       <c r="C575" t="s">
         <v>3679</v>
@@ -51512,7 +51512,7 @@
         <v>19286</v>
       </c>
       <c r="B576" t="n">
-        <v>145730</v>
+        <v>177023</v>
       </c>
       <c r="C576" t="s">
         <v>3685</v>
@@ -51652,7 +51652,7 @@
         <v>19286</v>
       </c>
       <c r="B578" t="n">
-        <v>145731</v>
+        <v>177024</v>
       </c>
       <c r="C578" t="s">
         <v>3700</v>
@@ -51723,7 +51723,7 @@
         <v>19286</v>
       </c>
       <c r="B579" t="n">
-        <v>145732</v>
+        <v>177025</v>
       </c>
       <c r="C579" t="s">
         <v>3706</v>
@@ -51855,7 +51855,7 @@
         <v>19286</v>
       </c>
       <c r="B581" t="n">
-        <v>145733</v>
+        <v>177026</v>
       </c>
       <c r="C581" t="s">
         <v>3718</v>
@@ -51991,7 +51991,7 @@
         <v>19286</v>
       </c>
       <c r="B583" t="n">
-        <v>145625</v>
+        <v>145510</v>
       </c>
       <c r="C583" t="s">
         <v>2787</v>
@@ -52180,7 +52180,7 @@
         <v>19286</v>
       </c>
       <c r="B586" t="n">
-        <v>145734</v>
+        <v>177027</v>
       </c>
       <c r="C586" t="s">
         <v>3749</v>
@@ -52245,7 +52245,7 @@
         <v>19286</v>
       </c>
       <c r="B587" t="n">
-        <v>145735</v>
+        <v>177028</v>
       </c>
       <c r="C587" t="s">
         <v>3758</v>
@@ -52316,7 +52316,7 @@
         <v>19286</v>
       </c>
       <c r="B588" t="n">
-        <v>145736</v>
+        <v>177029</v>
       </c>
       <c r="C588" t="s">
         <v>3765</v>
@@ -52387,7 +52387,7 @@
         <v>19286</v>
       </c>
       <c r="B589" t="n">
-        <v>145737</v>
+        <v>177030</v>
       </c>
       <c r="C589" t="s">
         <v>3770</v>
@@ -52582,7 +52582,7 @@
         <v>19286</v>
       </c>
       <c r="B592" t="n">
-        <v>145738</v>
+        <v>177031</v>
       </c>
       <c r="C592" t="s">
         <v>3792</v>
@@ -52714,7 +52714,7 @@
         <v>19286</v>
       </c>
       <c r="B594" t="n">
-        <v>145739</v>
+        <v>177032</v>
       </c>
       <c r="C594" t="s">
         <v>3804</v>
@@ -52775,7 +52775,7 @@
         <v>19286</v>
       </c>
       <c r="B595" t="n">
-        <v>145740</v>
+        <v>177033</v>
       </c>
       <c r="C595" t="s">
         <v>3809</v>
@@ -52842,7 +52842,7 @@
         <v>19286</v>
       </c>
       <c r="B596" t="n">
-        <v>145741</v>
+        <v>177034</v>
       </c>
       <c r="C596" t="s">
         <v>3815</v>
@@ -52913,7 +52913,7 @@
         <v>19286</v>
       </c>
       <c r="B597" t="n">
-        <v>145742</v>
+        <v>177035</v>
       </c>
       <c r="C597" t="s">
         <v>3820</v>
@@ -52970,7 +52970,7 @@
         <v>19286</v>
       </c>
       <c r="B598" t="n">
-        <v>145743</v>
+        <v>177036</v>
       </c>
       <c r="C598" t="s">
         <v>3826</v>
@@ -53037,7 +53037,7 @@
         <v>19286</v>
       </c>
       <c r="B599" t="n">
-        <v>145744</v>
+        <v>177037</v>
       </c>
       <c r="C599" t="s">
         <v>3831</v>
@@ -53177,7 +53177,7 @@
         <v>19286</v>
       </c>
       <c r="B601" t="n">
-        <v>145745</v>
+        <v>177038</v>
       </c>
       <c r="C601" t="s">
         <v>3845</v>
@@ -53390,7 +53390,7 @@
         <v>19286</v>
       </c>
       <c r="B604" t="n">
-        <v>145746</v>
+        <v>177039</v>
       </c>
       <c r="C604" t="s">
         <v>3862</v>
@@ -53516,7 +53516,7 @@
         <v>19286</v>
       </c>
       <c r="B606" t="n">
-        <v>145747</v>
+        <v>177040</v>
       </c>
       <c r="C606" t="s">
         <v>3874</v>
@@ -53727,7 +53727,7 @@
         <v>19286</v>
       </c>
       <c r="B609" t="n">
-        <v>145748</v>
+        <v>177041</v>
       </c>
       <c r="C609" t="s">
         <v>3897</v>
@@ -54444,7 +54444,7 @@
         <v>19286</v>
       </c>
       <c r="B620" t="n">
-        <v>145749</v>
+        <v>177042</v>
       </c>
       <c r="C620" t="s">
         <v>3965</v>
@@ -54511,7 +54511,7 @@
         <v>19286</v>
       </c>
       <c r="B621" t="n">
-        <v>145750</v>
+        <v>177043</v>
       </c>
       <c r="C621" t="s">
         <v>3972</v>
@@ -54578,7 +54578,7 @@
         <v>19286</v>
       </c>
       <c r="B622" t="n">
-        <v>145518</v>
+        <v>145532</v>
       </c>
       <c r="C622" t="s">
         <v>1811</v>
@@ -54649,7 +54649,7 @@
         <v>19286</v>
       </c>
       <c r="B623" t="n">
-        <v>145751</v>
+        <v>177044</v>
       </c>
       <c r="C623" t="s">
         <v>3981</v>
@@ -54988,7 +54988,7 @@
         <v>19286</v>
       </c>
       <c r="B628" t="n">
-        <v>145752</v>
+        <v>177045</v>
       </c>
       <c r="C628" t="s">
         <v>4015</v>
@@ -55063,7 +55063,7 @@
         <v>19286</v>
       </c>
       <c r="B629" t="n">
-        <v>145621</v>
+        <v>145537</v>
       </c>
       <c r="C629" t="s">
         <v>2754</v>
@@ -55128,7 +55128,7 @@
         <v>19286</v>
       </c>
       <c r="B630" t="n">
-        <v>145753</v>
+        <v>177046</v>
       </c>
       <c r="C630" t="s">
         <v>4029</v>
@@ -55329,7 +55329,7 @@
         <v>19286</v>
       </c>
       <c r="B633" t="n">
-        <v>145754</v>
+        <v>177047</v>
       </c>
       <c r="C633" t="s">
         <v>4050</v>
@@ -55400,7 +55400,7 @@
         <v>19286</v>
       </c>
       <c r="B634" t="n">
-        <v>145755</v>
+        <v>177048</v>
       </c>
       <c r="C634" t="s">
         <v>4059</v>
@@ -55471,7 +55471,7 @@
         <v>19286</v>
       </c>
       <c r="B635" t="n">
-        <v>145756</v>
+        <v>177049</v>
       </c>
       <c r="C635" t="s">
         <v>4066</v>
@@ -55528,7 +55528,7 @@
         <v>19286</v>
       </c>
       <c r="B636" t="n">
-        <v>145757</v>
+        <v>177050</v>
       </c>
       <c r="C636" t="s">
         <v>4071</v>
@@ -55646,7 +55646,7 @@
         <v>19286</v>
       </c>
       <c r="B638" t="n">
-        <v>145758</v>
+        <v>177051</v>
       </c>
       <c r="C638" t="s">
         <v>4082</v>
@@ -55778,7 +55778,7 @@
         <v>19286</v>
       </c>
       <c r="B640" t="n">
-        <v>145759</v>
+        <v>177052</v>
       </c>
       <c r="C640" t="s">
         <v>4096</v>
@@ -55835,7 +55835,7 @@
         <v>19286</v>
       </c>
       <c r="B641" t="n">
-        <v>145760</v>
+        <v>177053</v>
       </c>
       <c r="C641" t="s">
         <v>4102</v>
@@ -56085,7 +56085,7 @@
         <v>19286</v>
       </c>
       <c r="B645" t="n">
-        <v>145761</v>
+        <v>177054</v>
       </c>
       <c r="C645" t="s">
         <v>4127</v>
@@ -56298,7 +56298,7 @@
         <v>19286</v>
       </c>
       <c r="B648" t="n">
-        <v>145762</v>
+        <v>177055</v>
       </c>
       <c r="C648" t="s">
         <v>4146</v>
@@ -56373,7 +56373,7 @@
         <v>19286</v>
       </c>
       <c r="B649" t="n">
-        <v>145763</v>
+        <v>177056</v>
       </c>
       <c r="C649" t="s">
         <v>4154</v>
@@ -56448,7 +56448,7 @@
         <v>19286</v>
       </c>
       <c r="B650" t="n">
-        <v>145764</v>
+        <v>177057</v>
       </c>
       <c r="C650" t="s">
         <v>4161</v>
@@ -56513,7 +56513,7 @@
         <v>19286</v>
       </c>
       <c r="B651" t="n">
-        <v>145765</v>
+        <v>177058</v>
       </c>
       <c r="C651" t="s">
         <v>4170</v>
